--- a/working/armbruster/eFL.wFL.low.xlsx
+++ b/working/armbruster/eFL.wFL.low.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/armbruster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F5885A8-17EC-BD45-94D5-DA4445168E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22202A8-1BC8-CB4F-8EF3-BBA0891B469E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2300" windowWidth="23220" windowHeight="14280" xr2:uid="{97B5DB6A-26CF-1043-B8BD-E308D29F7DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>cross</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>F2</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -459,11 +462,19 @@
         <v>5.9374999999999997E-2</v>
       </c>
       <c r="C2">
-        <f>(D2*0.05)/1.31</f>
         <v>1.8129770992366411E-2</v>
       </c>
-      <c r="D2">
-        <v>0.47499999999999998</v>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -474,11 +485,19 @@
         <v>6.7187499999999997E-2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C5" si="0">(D3*0.05)/1.31</f>
         <v>7.442748091603054E-3</v>
       </c>
-      <c r="D3">
-        <v>0.19500000000000001</v>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -489,11 +508,19 @@
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
         <v>9.3511450381679392E-3</v>
       </c>
-      <c r="D4">
-        <v>0.245</v>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -504,11 +531,19 @@
         <v>5.3124999999999999E-2</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
         <v>9.1603053435114507E-3</v>
       </c>
-      <c r="D5">
-        <v>0.24</v>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
